--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2633577.035528213</v>
+        <v>2631689.454011811</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535564.7285470486</v>
+        <v>673416.801893015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.2774703727815</v>
       </c>
       <c r="G2" t="n">
-        <v>254.3742058519776</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.2570633735997</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>113.2870337730222</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>83.85112090809149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.5287080994958</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>29.16584928708743</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9453656527047</v>
+        <v>403.2634945072138</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.9438950833107</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.40307124070384</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>76.79694693194003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24.75012089215484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>162.9173081989218</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.1537278750029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>252.9697480665996</v>
+        <v>28.80085480360045</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>32.89657674137829</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>65.56877915713525</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.02228922158527</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>242.0447840838201</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>56.50923686343639</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>60.63635671003539</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571471</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523552</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463045</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.455337753612</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="C2" t="n">
-        <v>798.4928208132003</v>
+        <v>823.3126770315976</v>
       </c>
       <c r="D2" t="n">
-        <v>798.4928208132003</v>
+        <v>465.0469784248471</v>
       </c>
       <c r="E2" t="n">
-        <v>798.4928208132003</v>
+        <v>465.0469784248471</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5473200639968</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882118</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058187</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>613.6976369609572</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>613.6976369609572</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>613.6976369609572</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>385.7080860629399</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.7080860629399</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>942.2179168761943</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>573.2553999357826</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>573.2553999357826</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>187.4671473375384</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>180.5216465883349</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>166.5982425269258</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>166.5982425269258</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,19 +4656,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.4807191145269</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>219.732346547057</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>83.40343564570529</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,52 +5036,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>648.0342195052081</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N12" t="n">
-        <v>1949.360523305091</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.113937389053</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.3990000507114</v>
+        <v>604.14521039576</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045606</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>731.0291971045606</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0291971045606</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626376</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>174.7897651289122</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033466</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663859</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>594.9539715530981</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.9539715530981</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168668</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>909.371263703347</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="X19" t="n">
-        <v>237.7764125461473</v>
+        <v>744.8083261286786</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,37 +5747,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.9805482336702</v>
+        <v>672.4909068465486</v>
       </c>
       <c r="C25" t="n">
-        <v>241.9805482336702</v>
+        <v>503.5547239186417</v>
       </c>
       <c r="D25" t="n">
-        <v>241.9805482336702</v>
+        <v>503.5547239186417</v>
       </c>
       <c r="E25" t="n">
-        <v>241.9805482336702</v>
+        <v>355.6416303362486</v>
       </c>
       <c r="F25" t="n">
-        <v>241.9805482336702</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G25" t="n">
-        <v>241.9805482336702</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765177</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706308</v>
+        <v>1143.556541713749</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336702</v>
+        <v>854.1393716767882</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336702</v>
+        <v>854.1393716767882</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336702</v>
+        <v>854.1393716767882</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6209,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.6134626728256</v>
+        <v>564.1830073829215</v>
       </c>
       <c r="C28" t="n">
-        <v>710.6134626728256</v>
+        <v>395.2468244550146</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728256</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904324</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925221</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1483.74224104115</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1483.74224104115</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1483.74224104115</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>1194.613602254708</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655732</v>
+        <v>1194.613602254708</v>
       </c>
       <c r="W28" t="n">
-        <v>710.6134626728256</v>
+        <v>1194.613602254708</v>
       </c>
       <c r="X28" t="n">
-        <v>710.6134626728256</v>
+        <v>966.6240513566911</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.6134626728256</v>
+        <v>745.8314722131611</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6482,25 +6482,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833449</v>
+        <v>639.0058129141011</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368089</v>
+        <v>581.9257756783068</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058442</v>
+        <v>487.5700015473419</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441923</v>
+        <v>395.4177732463197</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276531</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864674</v>
@@ -6634,7 +6634,7 @@
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096195</v>
+        <v>1768.101513126952</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591125</v>
+        <v>1534.733739621881</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666609</v>
+        <v>1335.810116697365</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911019</v>
+        <v>1102.153811941776</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943727</v>
+        <v>929.9251263251292</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322136</v>
+        <v>764.89341246297</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,25 +6698,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982964</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7017,22 +7017,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527472</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740469</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852603</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480309</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937957</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480087</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839949</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427934</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782176</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634157</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530668</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,28 +7178,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,10 +7722,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7737,13 +7737,13 @@
         <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2305.425532778847</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9501,7 +9501,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>282.1585173815951</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.88808509862659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>69.843749857924</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>89.69662153143756</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>200.9595344968823</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>123.6056901376692</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709193</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>33.55325026999139</v>
+        <v>257.7221435329906</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0172516261579</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>186.5688641666927</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>94.94206318220746</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>44.47821425277087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>55.53432760663427</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30.5943493079765</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752356</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516046</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506409</v>
+        <v>589892.0991506408</v>
       </c>
       <c r="L2" t="n">
+        <v>595255.2831516044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="N2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="M2" t="n">
-        <v>595255.2831516047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>595255.2831516044</v>
-      </c>
       <c r="O2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="P2" t="n">
         <v>595255.2831516046</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284586</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086667</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758218</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758514</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477249</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.813306968</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075766</v>
+        <v>373337.0659075768</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075765</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651114</v>
+        <v>-51040.47862248281</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803855</v>
+        <v>474119.5578544129</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803852</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803852</v>
+        <v>474119.557854413</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803851</v>
+        <v>474119.557854413</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877923</v>
+        <v>297696.3386618197</v>
       </c>
       <c r="K6" t="n">
-        <v>430148.8691127997</v>
+        <v>430130.3753748655</v>
       </c>
       <c r="L6" t="n">
-        <v>463990.6895988164</v>
+        <v>463990.6895988158</v>
       </c>
       <c r="M6" t="n">
-        <v>339532.5811658458</v>
+        <v>339532.5811658457</v>
       </c>
       <c r="N6" t="n">
-        <v>474333.5963996826</v>
+        <v>474333.5963996831</v>
       </c>
       <c r="O6" t="n">
-        <v>474333.596399683</v>
+        <v>474333.5963996827</v>
       </c>
       <c r="P6" t="n">
-        <v>430170.991096837</v>
+        <v>430170.9910968372</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108334</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855733</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>165.5985753689299</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>159.4099641688174</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>25.16398464933154</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>172.9948404689555</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>281.421770862916</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>40.40260814536548</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6403602933822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>16.03410990144958</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>218.8388043680903</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-1.68248982894876e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>261.7559250855782</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>245.268778155287</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>87.45220835482723</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>338.7182831871121</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,16 +32725,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,22 +33023,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33050,10 +33050,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>247.0511231457006</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,7 +33506,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33524,10 +33524,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34457,7 +34457,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>71.2447481687679</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>388.3797231237978</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,7 +35504,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>429.7571393808939</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>411.0232381828088</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>662.2893130150937</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>595.0517854059208</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>139.5622729371507</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>419.2454104289881</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
